--- a/Art and Artists.xlsx
+++ b/Art and Artists.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,12 +404,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sophie's Choice</t>
+          <t>Taxi Driver</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alan J. Pakula</t>
+          <t>Robert De Niro and Cybill Shepherd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -419,19 +419,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Decisions</t>
+          <t>Beauty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saving Private Ryan</t>
+          <t>The Birds</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stephen Spielberg</t>
+          <t>Alfred Hitchcock</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -441,19 +441,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Destruction</t>
+          <t>Birds</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Citizen Kane</t>
+          <t>The Deerhunter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orson Welles</t>
+          <t>Robert De Niro, Christopher Walken, Meryl Streep</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -463,19 +463,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Chance</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Groundhog Day</t>
+          <t>On the Waterfront</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bill Murray</t>
+          <t>Marlon Brando</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -485,19 +485,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Churches</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Deerhunter</t>
+          <t>Bonnie &amp; Clyde</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>De Niro, Walken, Streep</t>
+          <t>Clyde Beatty and Faye Dunaway</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -507,19 +507,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Death</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>North by Northwest</t>
+          <t>Sophie's Choice</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hitchcock</t>
+          <t>Alan J. Pakula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -529,469 +529,1349 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Silence</t>
+          <t>Decisions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Absinthe</t>
+          <t>Saving Private Ryan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edgar Degas</t>
+          <t>Stephen Spielberg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Destruction</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Card Players</t>
+          <t>The Big Chill</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paul Cezanne</t>
+          <t>Lawrence Kasden</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Decisions</t>
+          <t>Friends</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Flood at Port-Marley</t>
+          <t>Mutiny on the Bounty</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edward Sisley</t>
+          <t>Marlon Brando</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Destruction</t>
+          <t>Sailing Ships</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The Floor Scrapers</t>
+          <t>North by Northwest</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gustave Caillebotte</t>
+          <t>Alfred Hitchcock</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Silence</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Bellili Family</t>
+          <t>Forrest Gump</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edgar Degas</t>
+          <t>Tom Hanks</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Soldiers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Quai Saint-Michel and Notre-Dame</t>
+          <t>Chariots of Fire</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Luce Maximilien</t>
+          <t>1924 Olympics</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Sports</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jane Avril Leaving the Moulin Rouge</t>
+          <t>Groundhog Day</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Henri de Toulouse-Lautrec</t>
+          <t>Bill Murray</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Painting</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Silence</t>
+          <t>Time</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mr. Flood's Party</t>
+          <t>Murder on the Orient Express</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edwin Arlington Robinson</t>
+          <t>Sidney Lumet</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Trains</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Road Not Taken</t>
+          <t>The Wizard of Oz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Robert Frost</t>
+          <t>Judy Garland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Decisions</t>
+          <t>Wind</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ozymandias</t>
+          <t>Citizen Kane</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Percy Bysshe Shelley</t>
+          <t>Orson Welles</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Destruction</t>
+          <t>Work</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Stopping by Woods on a Snowy Evening</t>
+          <t>The Absinthe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Robert Frost</t>
+          <t>Edgar Degas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Alcohol</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>To His Coy Mistress</t>
+          <t>Garden at Sainte Adresse</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andrew Marvell</t>
+          <t>Claude Monet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Beauty</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hap</t>
+          <t>The Magpie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Thomas Hardy</t>
+          <t>Claude Monet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Birds</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>For Whom the Bell Tolls</t>
+          <t>The Quai Saint-Michel and Notre-Dame</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John Donne</t>
+          <t>Luce Maximilien</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Poem</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Silence</t>
+          <t>Chance</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Margaritaville</t>
+          <t>The Church at Essoyes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jimmy Buffet</t>
+          <t>Pierre-Auguste Renoir</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rock Song</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Churches</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Do You Believe in Magic?</t>
+          <t>The House of the Hanged Man</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lovin' Spoonfuls</t>
+          <t>Paul Cezanne</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rock Song</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Decisions</t>
+          <t>Death</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>My Hometown</t>
+          <t>The Card Players</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bruce Springsteen</t>
+          <t>Paul Cezanne</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rock Song</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Destruction</t>
+          <t>Decisions</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proud Mary</t>
+          <t>The Flood at Port-Marley</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Credence Clearwater Revival</t>
+          <t>Edward Sisley</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rock Song</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Destruction</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Turn, Turn, Turn</t>
+          <t>Luncheon on the Grass</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Byrds</t>
+          <t>Edouard Manet</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rock Song</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Friends</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Winner Takes It All</t>
+          <t>Harbour at Honfleur</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ABBA</t>
+          <t>Georges Seurat</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rock Song</t>
+          <t>Painting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Sailing Ships</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Jane Avril Leaving the Moulin Rouge</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Henri de Toulouse-Lautrec</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The Execution of Maximilien</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Edouard Manet</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Soldiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Racers before the Stands</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Edgar Degas</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The Bellili Family</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Edgar Degas</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>La Gare St. Lazare</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Claude Monet</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Trains</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The Man at the Helm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Theo van Rasselberghe</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>The Floor Scrapers</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Gustave Caillebotte</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Painting</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mr. Flood's Party</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Edwin Arlington Robinson</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Alcohol</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>She Walks in Beauty</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lord Byron</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Beauty</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ode to a Nightingale</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>John Keats</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Birds</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hap</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Thomas Hardy</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dover Beach</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Matthew Arnold</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Churches</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Death, be not proud</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>John Donne</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>The Road Not Taken</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Robert Frost</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Decisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ozymandias</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Percy Bysshe Shelley</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Destruction</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alone</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Maya Angelou</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Friends</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Old Ironsides</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Oliver Wendell Holmes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sailing Ships</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>For Whom the Bell Tolls</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>John Donne</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The Charge of the Light Brigade</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alfred, Lord Tennyson</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Soldiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>To An Athlete Dying Young</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A. E. Housman</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>To His Coy Mistress</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Andrew Marvell</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>The Railway Train</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Emily Dickinson</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Trains</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ode to the West Wind</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Percy Bysshe Shelley</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Stopping by Woods on a Snowy Evening</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Robert Frost</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Poem</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Margaritaville</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jimmy Buffet</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Alcohol</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>The First Time Ever I Saw Your Face</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Roberta Flack</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Beauty</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Free Bird</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lynryd Skynyrd</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Birds</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>The Winner Takes It All</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ABBA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>California Dreamin'</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>The Mamas &amp; Papas</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Churches</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Honey</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bobby Goldsboro</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Do You Believe in Magic?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lovin' Spoonfuls</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Decisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>My Hometown</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bruce Springsteen</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Destruction</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>You've Got a Friend</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>James Taylor</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Friends</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sloop John B</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>The Beach Boys</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sailing Ships</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>The Sounds of Silence</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Simon &amp; Garfunkel</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Rock Song</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Travellin' Soldier</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>The Chicks</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Soldiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The Boxer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Simon &amp; Garfunkel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Turn, Turn, Turn</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>The Byrds</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>City of New Orleans</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Willie Nelson</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Trains</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Blowin' in the Wind</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bob Dylan</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Proud Mary</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Credence Clearwater Revival</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rock Song</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Work</t>
         </is>
       </c>
     </row>
